--- a/card list.xlsx
+++ b/card list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="238">
   <si>
     <t>DOOR CARDS</t>
   </si>
@@ -642,6 +642,104 @@
   </si>
   <si>
     <t>player affected: _player_</t>
+  </si>
+  <si>
+    <t>item for left hand</t>
+  </si>
+  <si>
+    <t>Equipable</t>
+  </si>
+  <si>
+    <t>power increase through item</t>
+  </si>
+  <si>
+    <t>lhand +1</t>
+  </si>
+  <si>
+    <t>item for right hand</t>
+  </si>
+  <si>
+    <t>rhand +1</t>
+  </si>
+  <si>
+    <t>lhand +2</t>
+  </si>
+  <si>
+    <t>rhand +2</t>
+  </si>
+  <si>
+    <t>lhand +3</t>
+  </si>
+  <si>
+    <t>rhand +3</t>
+  </si>
+  <si>
+    <t>lhand +4</t>
+  </si>
+  <si>
+    <t>rhand +4</t>
+  </si>
+  <si>
+    <t>lhand +5</t>
+  </si>
+  <si>
+    <t>rhand +5</t>
+  </si>
+  <si>
+    <t>item for head</t>
+  </si>
+  <si>
+    <t>head +1</t>
+  </si>
+  <si>
+    <t>head +2</t>
+  </si>
+  <si>
+    <t>head +3</t>
+  </si>
+  <si>
+    <t>head +4</t>
+  </si>
+  <si>
+    <t>head +5</t>
+  </si>
+  <si>
+    <t>item for foot</t>
+  </si>
+  <si>
+    <t>foot +1</t>
+  </si>
+  <si>
+    <t>foot +2</t>
+  </si>
+  <si>
+    <t>foot +3</t>
+  </si>
+  <si>
+    <t>foot +4</t>
+  </si>
+  <si>
+    <t>foot +5</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armor +1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armor +2
+</t>
+  </si>
+  <si>
+    <t>armor +3</t>
+  </si>
+  <si>
+    <t>armor +4</t>
+  </si>
+  <si>
+    <t>armor +5</t>
   </si>
 </sst>
 </file>
@@ -2338,6 +2436,12 @@
       <c r="D87" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -2352,6 +2456,12 @@
       <c r="D88" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="E88" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
@@ -2366,6 +2476,12 @@
       <c r="D89" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="E89" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
@@ -2380,6 +2496,12 @@
       <c r="D90" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
@@ -2394,6 +2516,12 @@
       <c r="D91" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
@@ -2408,6 +2536,12 @@
       <c r="D92" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="E92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
@@ -2422,6 +2556,12 @@
       <c r="D93" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="E93" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
@@ -2436,6 +2576,12 @@
       <c r="D94" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="E94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
@@ -2450,6 +2596,12 @@
       <c r="D95" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="E95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
@@ -2464,6 +2616,12 @@
       <c r="D96" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="E96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
@@ -2478,6 +2636,12 @@
       <c r="D97" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E97" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
@@ -2492,6 +2656,12 @@
       <c r="D98" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E98" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
@@ -2506,6 +2676,12 @@
       <c r="D99" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E99" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
@@ -2520,6 +2696,12 @@
       <c r="D100" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
@@ -2534,6 +2716,12 @@
       <c r="D101" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E101" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
@@ -2548,6 +2736,12 @@
       <c r="D102" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E102" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
@@ -2562,6 +2756,12 @@
       <c r="D103" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
@@ -2576,6 +2776,12 @@
       <c r="D104" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E104" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
@@ -2590,6 +2796,12 @@
       <c r="D105" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E105" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
@@ -2604,6 +2816,12 @@
       <c r="D106" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E106" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
@@ -2618,6 +2836,12 @@
       <c r="D107" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="108" ht="26.25">
       <c r="A108" s="1" t="s">
@@ -2632,6 +2856,12 @@
       <c r="D108" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E108" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
@@ -2646,6 +2876,12 @@
       <c r="D109" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="E109" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
@@ -2660,6 +2896,12 @@
       <c r="D110" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="E110" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="111" ht="37.5">
       <c r="A111" s="1" t="s">
@@ -2674,6 +2916,12 @@
       <c r="D111" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="E111" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" ht="26.25">
       <c r="A112" s="1" t="s">
@@ -2688,6 +2936,12 @@
       <c r="D112" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="E112" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="113" ht="26.25">
       <c r="A113" s="1" t="s">
@@ -2702,6 +2956,12 @@
       <c r="D113" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E113" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="114" ht="37.5">
       <c r="A114" s="1" t="s">
@@ -2716,6 +2976,12 @@
       <c r="D114" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="E114" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" ht="26.25">
       <c r="A115" s="1" t="s">
@@ -2730,6 +2996,12 @@
       <c r="D115" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E115" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
@@ -2744,6 +3016,12 @@
       <c r="D116" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E116" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="117" ht="37.5">
       <c r="A117" s="1" t="s">
@@ -2758,6 +3036,12 @@
       <c r="D117" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="E117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="118" ht="48.75">
       <c r="A118" s="1" t="s">
@@ -2772,6 +3056,12 @@
       <c r="D118" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="E118" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="119" ht="26.25">
       <c r="A119" s="1" t="s">
@@ -2786,6 +3076,12 @@
       <c r="D119" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E119" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="120" ht="60.0">
       <c r="A120" s="1" t="s">
@@ -2800,6 +3096,12 @@
       <c r="D120" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E120" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="121" ht="48.75">
       <c r="A121" s="1" t="s">
@@ -2814,6 +3116,12 @@
       <c r="D121" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="E121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="122" ht="26.25">
       <c r="A122" s="1" t="s">
@@ -2828,81 +3136,437 @@
       <c r="D122" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="E122" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="123">
-      <c r="C123" s="2"/>
+      <c r="A123" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="124">
-      <c r="C124" s="2"/>
+      <c r="A124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="125">
-      <c r="C125" s="2"/>
+      <c r="A125" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="126">
-      <c r="C126" s="2"/>
+      <c r="A126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
-      <c r="C127" s="2"/>
+      <c r="A127" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
-      <c r="C128" s="2"/>
+      <c r="A128" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
-      <c r="C129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
-      <c r="C130" s="2"/>
+      <c r="A130" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
-      <c r="C131" s="2"/>
+      <c r="A131" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
-      <c r="C132" s="2"/>
+      <c r="A132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
-      <c r="C133" s="2"/>
+      <c r="A133" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
-      <c r="C134" s="2"/>
+      <c r="A134" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
-      <c r="C135" s="2"/>
+      <c r="A135" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="136">
-      <c r="C136" s="2"/>
+      <c r="A136" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137">
-      <c r="C137" s="2"/>
+      <c r="A137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
-      <c r="C138" s="2"/>
+      <c r="A138" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
-      <c r="C139" s="2"/>
+      <c r="A139" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
-      <c r="C140" s="2"/>
+      <c r="A140" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
-      <c r="C141" s="2"/>
+      <c r="A141" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143">
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144">
-      <c r="C144" s="2"/>
+      <c r="A142" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143" ht="26.25">
+      <c r="A143" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144" ht="26.25">
+      <c r="A144" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="145">
-      <c r="C145" s="2"/>
+      <c r="A145" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="146">
-      <c r="C146" s="2"/>
+      <c r="A146" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
-      <c r="C147" s="2"/>
+      <c r="A147" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="C148" s="2"/>

--- a/card list.xlsx
+++ b/card list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="238">
   <si>
     <t>DOOR CARDS</t>
   </si>
@@ -3159,6 +3159,9 @@
       <c r="E123" s="1">
         <v>0.0</v>
       </c>
+      <c r="F123" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
@@ -3176,6 +3179,9 @@
       <c r="E124" s="1">
         <v>0.0</v>
       </c>
+      <c r="F124" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
@@ -3193,6 +3199,9 @@
       <c r="E125" s="1">
         <v>0.0</v>
       </c>
+      <c r="F125" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
@@ -3210,6 +3219,9 @@
       <c r="E126" s="1">
         <v>0.0</v>
       </c>
+      <c r="F126" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
@@ -3227,6 +3239,9 @@
       <c r="E127" s="1">
         <v>0.0</v>
       </c>
+      <c r="F127" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
@@ -3244,6 +3259,9 @@
       <c r="E128" s="1">
         <v>0.0</v>
       </c>
+      <c r="F128" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
@@ -3261,6 +3279,9 @@
       <c r="E129" s="1">
         <v>0.0</v>
       </c>
+      <c r="F129" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
@@ -3278,6 +3299,9 @@
       <c r="E130" s="1">
         <v>0.0</v>
       </c>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
@@ -3295,6 +3319,9 @@
       <c r="E131" s="1">
         <v>0.0</v>
       </c>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
@@ -3312,6 +3339,9 @@
       <c r="E132" s="1">
         <v>0.0</v>
       </c>
+      <c r="F132" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
@@ -3329,6 +3359,9 @@
       <c r="E133" s="1">
         <v>0.0</v>
       </c>
+      <c r="F133" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
@@ -3346,6 +3379,9 @@
       <c r="E134" s="1">
         <v>0.0</v>
       </c>
+      <c r="F134" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
@@ -3363,6 +3399,9 @@
       <c r="E135" s="1">
         <v>0.0</v>
       </c>
+      <c r="F135" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
@@ -3380,6 +3419,9 @@
       <c r="E136" s="1">
         <v>0.0</v>
       </c>
+      <c r="F136" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
@@ -3397,6 +3439,9 @@
       <c r="E137" s="1">
         <v>0.0</v>
       </c>
+      <c r="F137" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
@@ -3414,6 +3459,9 @@
       <c r="E138" s="1">
         <v>0.0</v>
       </c>
+      <c r="F138" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
@@ -3431,6 +3479,9 @@
       <c r="E139" s="1">
         <v>0.0</v>
       </c>
+      <c r="F139" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
@@ -3448,6 +3499,9 @@
       <c r="E140" s="1">
         <v>0.0</v>
       </c>
+      <c r="F140" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
@@ -3465,6 +3519,9 @@
       <c r="E141" s="1">
         <v>0.0</v>
       </c>
+      <c r="F141" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
@@ -3482,6 +3539,9 @@
       <c r="E142" s="1">
         <v>0.0</v>
       </c>
+      <c r="F142" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="143" ht="26.25">
       <c r="A143" s="1" t="s">
@@ -3499,6 +3559,9 @@
       <c r="E143" s="1">
         <v>0.0</v>
       </c>
+      <c r="F143" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="144" ht="26.25">
       <c r="A144" s="1" t="s">
@@ -3516,6 +3579,9 @@
       <c r="E144" s="1">
         <v>0.0</v>
       </c>
+      <c r="F144" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
@@ -3533,6 +3599,9 @@
       <c r="E145" s="1">
         <v>0.0</v>
       </c>
+      <c r="F145" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
@@ -3550,6 +3619,9 @@
       <c r="E146" s="1">
         <v>0.0</v>
       </c>
+      <c r="F146" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
@@ -3566,6 +3638,9 @@
       </c>
       <c r="E147" s="1">
         <v>0.0</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="148">

--- a/card list.xlsx
+++ b/card list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="237">
   <si>
     <t>DOOR CARDS</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Affect</t>
+    <t>Effect</t>
   </si>
   <si>
     <t>Power</t>
@@ -420,10 +420,6 @@
   </si>
   <si>
     <t>Desciption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affect
-</t>
   </si>
   <si>
     <t>Flamethrower</t>
@@ -2409,7 +2405,7 @@
     <row r="85">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" ht="26.25">
+    <row r="86">
       <c r="A86" s="1" t="s">
         <v>130</v>
       </c>
@@ -2420,21 +2416,27 @@
         <v>132</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>133</v>
+        <v>4</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E87" s="1">
         <v>0.0</v>
@@ -2445,16 +2447,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -2465,16 +2467,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E89" s="1">
         <v>0.0</v>
@@ -2485,16 +2487,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E90" s="1">
         <v>0.0</v>
@@ -2505,16 +2507,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E91" s="1">
         <v>0.0</v>
@@ -2525,16 +2527,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E92" s="1">
         <v>0.0</v>
@@ -2545,16 +2547,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E93" s="1">
         <v>0.0</v>
@@ -2565,16 +2567,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E94" s="1">
         <v>0.0</v>
@@ -2585,16 +2587,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E95" s="1">
         <v>0.0</v>
@@ -2605,16 +2607,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E96" s="1">
         <v>0.0</v>
@@ -2625,16 +2627,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E97" s="1">
         <v>0.0</v>
@@ -2645,16 +2647,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E98" s="1">
         <v>0.0</v>
@@ -2665,16 +2667,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E99" s="1">
         <v>0.0</v>
@@ -2685,16 +2687,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E100" s="1">
         <v>0.0</v>
@@ -2705,16 +2707,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E101" s="1">
         <v>0.0</v>
@@ -2725,16 +2727,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E102" s="1">
         <v>0.0</v>
@@ -2745,16 +2747,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E103" s="1">
         <v>0.0</v>
@@ -2765,16 +2767,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="1">
         <v>0.0</v>
@@ -2785,16 +2787,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C105" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" s="1">
         <v>0.0</v>
@@ -2805,16 +2807,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E106" s="1">
         <v>0.0</v>
@@ -2825,16 +2827,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E107" s="1">
         <v>0.0</v>
@@ -2845,16 +2847,16 @@
     </row>
     <row r="108" ht="26.25">
       <c r="A108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="D108" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" s="1">
         <v>0.0</v>
@@ -2865,16 +2867,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E109" s="1">
         <v>0.0</v>
@@ -2885,16 +2887,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E110" s="1">
         <v>0.0</v>
@@ -2905,16 +2907,16 @@
     </row>
     <row r="111" ht="37.5">
       <c r="A111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E111" s="1">
         <v>0.0</v>
@@ -2925,16 +2927,16 @@
     </row>
     <row r="112" ht="26.25">
       <c r="A112" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E112" s="1">
         <v>0.0</v>
@@ -2945,16 +2947,16 @@
     </row>
     <row r="113" ht="26.25">
       <c r="A113" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E113" s="1">
         <v>0.0</v>
@@ -2965,16 +2967,16 @@
     </row>
     <row r="114" ht="37.5">
       <c r="A114" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E114" s="1">
         <v>0.0</v>
@@ -2985,16 +2987,16 @@
     </row>
     <row r="115" ht="26.25">
       <c r="A115" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E115" s="1">
         <v>0.0</v>
@@ -3005,16 +3007,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E116" s="1">
         <v>0.0</v>
@@ -3025,16 +3027,16 @@
     </row>
     <row r="117" ht="37.5">
       <c r="A117" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E117" s="1">
         <v>0.0</v>
@@ -3045,16 +3047,16 @@
     </row>
     <row r="118" ht="48.75">
       <c r="A118" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E118" s="1">
         <v>0.0</v>
@@ -3065,16 +3067,16 @@
     </row>
     <row r="119" ht="26.25">
       <c r="A119" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E119" s="1">
         <v>0.0</v>
@@ -3085,16 +3087,16 @@
     </row>
     <row r="120" ht="60.0">
       <c r="A120" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E120" s="1">
         <v>0.0</v>
@@ -3105,16 +3107,16 @@
     </row>
     <row r="121" ht="48.75">
       <c r="A121" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="E121" s="1">
         <v>0.0</v>
@@ -3125,16 +3127,16 @@
     </row>
     <row r="122" ht="26.25">
       <c r="A122" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E122" s="1">
         <v>0.0</v>
@@ -3145,16 +3147,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E123" s="1">
         <v>0.0</v>
@@ -3165,16 +3167,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E124" s="1">
         <v>0.0</v>
@@ -3185,16 +3187,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D125" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E125" s="1">
         <v>0.0</v>
@@ -3205,16 +3207,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D126" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E126" s="1">
         <v>0.0</v>
@@ -3225,16 +3227,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D127" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E127" s="1">
         <v>0.0</v>
@@ -3245,16 +3247,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D128" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E128" s="1">
         <v>0.0</v>
@@ -3265,16 +3267,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E129" s="1">
         <v>0.0</v>
@@ -3285,16 +3287,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D130" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E130" s="1">
         <v>0.0</v>
@@ -3305,16 +3307,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E131" s="1">
         <v>0.0</v>
@@ -3325,16 +3327,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D132" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E132" s="1">
         <v>0.0</v>
@@ -3345,16 +3347,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E133" s="1">
         <v>0.0</v>
@@ -3365,16 +3367,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D134" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E134" s="1">
         <v>0.0</v>
@@ -3385,16 +3387,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D135" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E135" s="1">
         <v>0.0</v>
@@ -3405,16 +3407,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D136" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E136" s="1">
         <v>0.0</v>
@@ -3425,16 +3427,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D137" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E137" s="1">
         <v>0.0</v>
@@ -3445,16 +3447,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E138" s="1">
         <v>0.0</v>
@@ -3465,16 +3467,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D139" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E139" s="1">
         <v>0.0</v>
@@ -3485,16 +3487,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D140" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E140" s="1">
         <v>0.0</v>
@@ -3505,16 +3507,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D141" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E141" s="1">
         <v>0.0</v>
@@ -3525,16 +3527,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D142" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E142" s="1">
         <v>0.0</v>
@@ -3545,16 +3547,16 @@
     </row>
     <row r="143" ht="26.25">
       <c r="A143" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E143" s="1">
         <v>0.0</v>
@@ -3565,16 +3567,16 @@
     </row>
     <row r="144" ht="26.25">
       <c r="A144" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D144" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E144" s="1">
         <v>0.0</v>
@@ -3585,16 +3587,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D145" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E145" s="1">
         <v>0.0</v>
@@ -3605,16 +3607,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D146" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E146" s="1">
         <v>0.0</v>
@@ -3625,16 +3627,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D147" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E147" s="1">
         <v>0.0</v>

--- a/card list.xlsx
+++ b/card list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="259">
   <si>
     <t>DOOR CARDS</t>
   </si>
@@ -374,43 +374,109 @@
     <t>level: jedi: +1</t>
   </si>
   <si>
+    <t>Stormtrooper</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>_description_</t>
+  </si>
+  <si>
+    <t>Wamp Rat</t>
+  </si>
+  <si>
+    <t>The oode</t>
+  </si>
+  <si>
     <t>Monster: level 1</t>
   </si>
   <si>
-    <t>MONSTER</t>
-  </si>
-  <si>
-    <t>_description_</t>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
   </si>
   <si>
     <t>Monster: level 2</t>
   </si>
   <si>
+    <t>An Enemy Fleet</t>
+  </si>
+  <si>
     <t>Monster: level 4</t>
   </si>
   <si>
+    <t>A Mad Man In A Box</t>
+  </si>
+  <si>
+    <t>Jango Fett</t>
+  </si>
+  <si>
+    <t>An Alternate Universe's Version of You</t>
+  </si>
+  <si>
+    <t>player_power</t>
+  </si>
+  <si>
     <t>Monster: level 6</t>
   </si>
   <si>
+    <t>Wampa</t>
+  </si>
+  <si>
     <t>Monster: level 8</t>
   </si>
   <si>
+    <t>A Single Dalek</t>
+  </si>
+  <si>
+    <t>1 Weaping Angel</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
     <t>Monster: level 10</t>
   </si>
   <si>
+    <t>Klingons</t>
+  </si>
+  <si>
+    <t>The Entire Centauren Empire</t>
+  </si>
+  <si>
     <t>Monster: level 12</t>
   </si>
   <si>
-    <t>Monster: level 14</t>
-  </si>
-  <si>
-    <t>Monster: level 16</t>
-  </si>
-  <si>
-    <t>Monster: level 18</t>
-  </si>
-  <si>
-    <t>Monster: level 20</t>
+    <t>The Silence</t>
+  </si>
+  <si>
+    <t>Count Dooku</t>
+  </si>
+  <si>
+    <t>Cybermen</t>
+  </si>
+  <si>
+    <t>Borg</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>A Dalek Army</t>
+  </si>
+  <si>
+    <t>Emperor Palpetine</t>
+  </si>
+  <si>
+    <t>Kaaaaahhhhhhnnn</t>
+  </si>
+  <si>
+    <t>The Master</t>
+  </si>
+  <si>
+    <t>The Death Star</t>
   </si>
   <si>
     <t>TREASURE CARDS</t>
@@ -1741,7 +1807,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>118</v>
@@ -1761,7 +1827,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>118</v>
@@ -1781,7 +1847,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>118</v>
@@ -1801,7 +1867,7 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>118</v>
@@ -1821,7 +1887,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>118</v>
@@ -1841,7 +1907,7 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>118</v>
@@ -1861,7 +1927,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>118</v>
@@ -1881,7 +1947,7 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>118</v>
@@ -1901,7 +1967,7 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>118</v>
@@ -1921,7 +1987,7 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>118</v>
@@ -1939,9 +2005,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="26.25">
       <c r="A61" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>118</v>
@@ -1961,7 +2027,7 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>118</v>
@@ -1979,9 +2045,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="37.5">
       <c r="A63" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>118</v>
@@ -1992,8 +2058,8 @@
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="1">
-        <v>6.0</v>
+      <c r="E63" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>11</v>
@@ -2001,7 +2067,7 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>118</v>
@@ -2021,7 +2087,7 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>118</v>
@@ -2041,7 +2107,7 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>118</v>
@@ -2061,7 +2127,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>118</v>
@@ -2081,7 +2147,7 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>118</v>
@@ -2101,7 +2167,7 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>118</v>
@@ -2121,7 +2187,7 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
@@ -2141,7 +2207,7 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>118</v>
@@ -2159,9 +2225,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="26.25">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>118</v>
@@ -2181,7 +2247,7 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>118</v>
@@ -2201,7 +2267,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>118</v>
@@ -2221,7 +2287,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>118</v>
@@ -2241,7 +2307,7 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>118</v>
@@ -2261,7 +2327,7 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>118</v>
@@ -2281,7 +2347,7 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>118</v>
@@ -2301,7 +2367,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>118</v>
@@ -2321,7 +2387,7 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>118</v>
@@ -2341,7 +2407,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>118</v>
@@ -2361,7 +2427,7 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>118</v>
@@ -2381,7 +2447,7 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>118</v>
@@ -2407,13 +2473,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>4</v>
@@ -2427,16 +2493,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E87" s="1">
         <v>0.0</v>
@@ -2447,16 +2513,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -2467,16 +2533,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E89" s="1">
         <v>0.0</v>
@@ -2487,16 +2553,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E90" s="1">
         <v>0.0</v>
@@ -2507,16 +2573,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E91" s="1">
         <v>0.0</v>
@@ -2527,16 +2593,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E92" s="1">
         <v>0.0</v>
@@ -2547,16 +2613,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E93" s="1">
         <v>0.0</v>
@@ -2567,16 +2633,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E94" s="1">
         <v>0.0</v>
@@ -2587,16 +2653,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E95" s="1">
         <v>0.0</v>
@@ -2607,16 +2673,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E96" s="1">
         <v>0.0</v>
@@ -2627,16 +2693,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E97" s="1">
         <v>0.0</v>
@@ -2647,16 +2713,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E98" s="1">
         <v>0.0</v>
@@ -2667,16 +2733,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E99" s="1">
         <v>0.0</v>
@@ -2687,16 +2753,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E100" s="1">
         <v>0.0</v>
@@ -2707,16 +2773,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E101" s="1">
         <v>0.0</v>
@@ -2727,16 +2793,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E102" s="1">
         <v>0.0</v>
@@ -2747,16 +2813,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E103" s="1">
         <v>0.0</v>
@@ -2767,16 +2833,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E104" s="1">
         <v>0.0</v>
@@ -2787,16 +2853,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E105" s="1">
         <v>0.0</v>
@@ -2807,16 +2873,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E106" s="1">
         <v>0.0</v>
@@ -2827,16 +2893,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E107" s="1">
         <v>0.0</v>
@@ -2847,16 +2913,16 @@
     </row>
     <row r="108" ht="26.25">
       <c r="A108" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E108" s="1">
         <v>0.0</v>
@@ -2867,16 +2933,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E109" s="1">
         <v>0.0</v>
@@ -2887,16 +2953,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E110" s="1">
         <v>0.0</v>
@@ -2907,16 +2973,16 @@
     </row>
     <row r="111" ht="37.5">
       <c r="A111" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E111" s="1">
         <v>0.0</v>
@@ -2927,16 +2993,16 @@
     </row>
     <row r="112" ht="26.25">
       <c r="A112" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E112" s="1">
         <v>0.0</v>
@@ -2947,16 +3013,16 @@
     </row>
     <row r="113" ht="26.25">
       <c r="A113" s="1" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="E113" s="1">
         <v>0.0</v>
@@ -2967,16 +3033,16 @@
     </row>
     <row r="114" ht="37.5">
       <c r="A114" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E114" s="1">
         <v>0.0</v>
@@ -2987,16 +3053,16 @@
     </row>
     <row r="115" ht="26.25">
       <c r="A115" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E115" s="1">
         <v>0.0</v>
@@ -3007,16 +3073,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E116" s="1">
         <v>0.0</v>
@@ -3027,16 +3093,16 @@
     </row>
     <row r="117" ht="37.5">
       <c r="A117" s="1" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E117" s="1">
         <v>0.0</v>
@@ -3047,16 +3113,16 @@
     </row>
     <row r="118" ht="48.75">
       <c r="A118" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E118" s="1">
         <v>0.0</v>
@@ -3067,16 +3133,16 @@
     </row>
     <row r="119" ht="26.25">
       <c r="A119" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E119" s="1">
         <v>0.0</v>
@@ -3087,16 +3153,16 @@
     </row>
     <row r="120" ht="60.0">
       <c r="A120" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E120" s="1">
         <v>0.0</v>
@@ -3107,16 +3173,16 @@
     </row>
     <row r="121" ht="48.75">
       <c r="A121" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="E121" s="1">
         <v>0.0</v>
@@ -3127,16 +3193,16 @@
     </row>
     <row r="122" ht="26.25">
       <c r="A122" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="E122" s="1">
         <v>0.0</v>
@@ -3147,16 +3213,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E123" s="1">
         <v>0.0</v>
@@ -3167,16 +3233,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E124" s="1">
         <v>0.0</v>
@@ -3187,16 +3253,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E125" s="1">
         <v>0.0</v>
@@ -3207,16 +3273,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E126" s="1">
         <v>0.0</v>
@@ -3227,16 +3293,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="E127" s="1">
         <v>0.0</v>
@@ -3247,16 +3313,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E128" s="1">
         <v>0.0</v>
@@ -3267,16 +3333,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E129" s="1">
         <v>0.0</v>
@@ -3287,16 +3353,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E130" s="1">
         <v>0.0</v>
@@ -3307,16 +3373,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E131" s="1">
         <v>0.0</v>
@@ -3327,16 +3393,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="E132" s="1">
         <v>0.0</v>
@@ -3347,16 +3413,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="E133" s="1">
         <v>0.0</v>
@@ -3367,16 +3433,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E134" s="1">
         <v>0.0</v>
@@ -3387,16 +3453,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="E135" s="1">
         <v>0.0</v>
@@ -3407,16 +3473,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E136" s="1">
         <v>0.0</v>
@@ -3427,16 +3493,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E137" s="1">
         <v>0.0</v>
@@ -3447,16 +3513,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E138" s="1">
         <v>0.0</v>
@@ -3467,16 +3533,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E139" s="1">
         <v>0.0</v>
@@ -3487,16 +3553,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E140" s="1">
         <v>0.0</v>
@@ -3507,16 +3573,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E141" s="1">
         <v>0.0</v>
@@ -3527,16 +3593,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E142" s="1">
         <v>0.0</v>
@@ -3547,16 +3613,16 @@
     </row>
     <row r="143" ht="26.25">
       <c r="A143" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E143" s="1">
         <v>0.0</v>
@@ -3567,16 +3633,16 @@
     </row>
     <row r="144" ht="26.25">
       <c r="A144" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E144" s="1">
         <v>0.0</v>
@@ -3587,16 +3653,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E145" s="1">
         <v>0.0</v>
@@ -3607,16 +3673,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E146" s="1">
         <v>0.0</v>
@@ -3627,16 +3693,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="E147" s="1">
         <v>0.0</v>

--- a/card list.xlsx
+++ b/card list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="267">
   <si>
     <t>DOOR CARDS</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Bad Stuff</t>
+  </si>
+  <si>
+    <t>Code Typing</t>
   </si>
   <si>
     <t>Jedi</t>
@@ -115,7 +118,7 @@
     <t>-5 to the victim’s next combat and sex is permanently changed</t>
   </si>
   <si>
-    <t>combat affect: -5</t>
+    <t>power: -5</t>
   </si>
   <si>
     <t xml:space="preserve">Lose Your Race </t>
@@ -149,7 +152,7 @@
     <t>Every player loses 2 levels</t>
   </si>
   <si>
-    <t>player level: -2</t>
+    <t>level: -2</t>
   </si>
   <si>
     <t>Sucked Into Space</t>
@@ -158,22 +161,25 @@
     <t>lose a level</t>
   </si>
   <si>
+    <t>level: -1</t>
+  </si>
+  <si>
+    <t>An Uncool Fez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 to die rolls </t>
+  </si>
+  <si>
+    <t>escape roll: -1</t>
+  </si>
+  <si>
+    <t>Insult Khan</t>
+  </si>
+  <si>
+    <t>Lose a level</t>
+  </si>
+  <si>
     <t>player level: -1</t>
-  </si>
-  <si>
-    <t>An Uncool Fez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1 to die rolls </t>
-  </si>
-  <si>
-    <t>escape roll: -1</t>
-  </si>
-  <si>
-    <t>Insult Khan</t>
-  </si>
-  <si>
-    <t>Lose a level</t>
   </si>
   <si>
     <t>Frozen in Carbonite</t>
@@ -229,19 +235,30 @@
     <t>lose your class or classes if you have more than one</t>
   </si>
   <si>
+    <t xml:space="preserve">max class: -1
+</t>
+  </si>
+  <si>
     <t>Lose your race(s)</t>
   </si>
   <si>
     <t>lose your race or races if you have more than one</t>
   </si>
   <si>
+    <t xml:space="preserve">max race: -1
+</t>
+  </si>
+  <si>
     <t>Lose your footgear</t>
   </si>
   <si>
     <t>lose footgear</t>
   </si>
   <si>
-    <t>current footgear: 0</t>
+    <t>footgear: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none </t>
   </si>
   <si>
     <t>Lose your headgear</t>
@@ -250,7 +267,7 @@
     <t>lose headgear</t>
   </si>
   <si>
-    <t>current headgear: 0</t>
+    <t>headgear: 0</t>
   </si>
   <si>
     <t xml:space="preserve">Lose your armor
@@ -260,7 +277,7 @@
     <t>lose armor</t>
   </si>
   <si>
-    <t>current armor: 0</t>
+    <t>armor: 0</t>
   </si>
   <si>
     <t>Shrink Ray</t>
@@ -272,6 +289,9 @@
     <t>monster power: -5</t>
   </si>
   <si>
+    <t>temp</t>
+  </si>
+  <si>
     <t>Noble Being</t>
   </si>
   <si>
@@ -302,6 +322,10 @@
     <t>Cheat</t>
   </si>
   <si>
+    <t xml:space="preserve">Special Card
+</t>
+  </si>
+  <si>
     <t>Play any itesm that would normally not be playable and gain its bonus</t>
   </si>
   <si>
@@ -311,9 +335,6 @@
     <t>Hail an Ally</t>
   </si>
   <si>
-    <t>Help</t>
-  </si>
-  <si>
     <t>Take 1 players item and that item must make the difference in the battle</t>
   </si>
   <si>
@@ -338,7 +359,7 @@
     <t>You can have 2 race cards</t>
   </si>
   <si>
-    <t>race max: +2</t>
+    <t>race max: +1</t>
   </si>
   <si>
     <t>Super Munchkin</t>
@@ -347,7 +368,7 @@
     <t>You can have 2 class cards</t>
   </si>
   <si>
-    <t>class max: +2</t>
+    <t>class max: +1</t>
   </si>
   <si>
     <t>Wandering Alien</t>
@@ -488,16 +509,22 @@
     <t>Desciption</t>
   </si>
   <si>
+    <t>Temp Column</t>
+  </si>
+  <si>
     <t>Flamethrower</t>
   </si>
   <si>
-    <t>Neutral</t>
+    <t>Battle Bonus</t>
   </si>
   <si>
     <t>bonus to either side: +5</t>
   </si>
   <si>
-    <t>temp. battle power: +5</t>
+    <t>power: +5</t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
   <si>
     <t>Freeze Ray</t>
@@ -506,7 +533,7 @@
     <t>bonus to either side: +3</t>
   </si>
   <si>
-    <t>temp. battle power: +3</t>
+    <t>power: +3</t>
   </si>
   <si>
     <t>Lower Gravity</t>
@@ -515,7 +542,7 @@
     <t>bonus to either side: +2</t>
   </si>
   <si>
-    <t>temp. battle power: +2</t>
+    <t>power: +2</t>
   </si>
   <si>
     <t>Stray Missile</t>
@@ -584,7 +611,7 @@
     <t>PARADOX</t>
   </si>
   <si>
-    <t>card stop</t>
+    <t>special card</t>
   </si>
   <si>
     <t>cancels any trap or curse. play at any time, useable only once</t>
@@ -594,9 +621,6 @@
   </si>
   <si>
     <t>REACH THROUGH TIME</t>
-  </si>
-  <si>
-    <t>cards</t>
   </si>
   <si>
     <t xml:space="preserve">Go through the discards to find any card that you want and take that card and discard this one. Usable only once.
@@ -618,9 +642,6 @@
     <t>SPACE GORILLA GLUE</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>Use when someone sucessfully escapes a combat for any reason. They must reroll their escape (even if it was automatic)</t>
   </si>
   <si>
@@ -639,6 +660,9 @@
     <t>Invisibility Ray</t>
   </si>
   <si>
+    <t>battle bonus'</t>
+  </si>
+  <si>
     <t>Use when your run away roll fails. You escape automatically. Usable only worse</t>
   </si>
   <si>
@@ -646,6 +670,9 @@
   </si>
   <si>
     <t>Portal Collapse</t>
+  </si>
+  <si>
+    <t>battle bonus</t>
   </si>
   <si>
     <t>Allows automatic escape, for one or two players, from any fight</t>
@@ -715,113 +742,122 @@
     <t>power increase through item</t>
   </si>
   <si>
-    <t>lhand +1</t>
+    <t>lhand: +1</t>
   </si>
   <si>
     <t>item for right hand</t>
   </si>
   <si>
-    <t>rhand +1</t>
-  </si>
-  <si>
-    <t>lhand +2</t>
+    <t>rhand: +1</t>
+  </si>
+  <si>
+    <t>lhand: +2</t>
   </si>
   <si>
     <t>rhand +2</t>
   </si>
   <si>
-    <t>lhand +3</t>
-  </si>
-  <si>
-    <t>rhand +3</t>
-  </si>
-  <si>
-    <t>lhand +4</t>
-  </si>
-  <si>
-    <t>rhand +4</t>
-  </si>
-  <si>
-    <t>lhand +5</t>
-  </si>
-  <si>
-    <t>rhand +5</t>
+    <t>lhand: +3</t>
+  </si>
+  <si>
+    <t>rhand: +3</t>
+  </si>
+  <si>
+    <t>lhand: +4</t>
+  </si>
+  <si>
+    <t>rhand: +4</t>
+  </si>
+  <si>
+    <t>lhand: +5</t>
+  </si>
+  <si>
+    <t>rhand: +5</t>
   </si>
   <si>
     <t>item for head</t>
   </si>
   <si>
-    <t>head +1</t>
-  </si>
-  <si>
-    <t>head +2</t>
-  </si>
-  <si>
-    <t>head +3</t>
-  </si>
-  <si>
-    <t>head +4</t>
-  </si>
-  <si>
-    <t>head +5</t>
+    <t>head: +1</t>
+  </si>
+  <si>
+    <t>head: +2</t>
+  </si>
+  <si>
+    <t>head: +3</t>
+  </si>
+  <si>
+    <t>head: +4</t>
+  </si>
+  <si>
+    <t>head: +5</t>
   </si>
   <si>
     <t>item for foot</t>
   </si>
   <si>
-    <t>foot +1</t>
-  </si>
-  <si>
-    <t>foot +2</t>
-  </si>
-  <si>
-    <t>foot +3</t>
-  </si>
-  <si>
-    <t>foot +4</t>
-  </si>
-  <si>
-    <t>foot +5</t>
+    <t>foot: +1</t>
+  </si>
+  <si>
+    <t>foot: +2</t>
+  </si>
+  <si>
+    <t>foot: +3</t>
+  </si>
+  <si>
+    <t>foot: +4</t>
+  </si>
+  <si>
+    <t>foot: +5</t>
   </si>
   <si>
     <t>armor</t>
   </si>
   <si>
-    <t xml:space="preserve">armor +1
+    <t xml:space="preserve">armor: +1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">armor +2
+    <t xml:space="preserve">armor: +2
 </t>
   </si>
   <si>
-    <t>armor +3</t>
-  </si>
-  <si>
-    <t>armor +4</t>
-  </si>
-  <si>
-    <t>armor +5</t>
+    <t>armor: +3</t>
+  </si>
+  <si>
+    <t>armor: +4</t>
+  </si>
+  <si>
+    <t>armor: +5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -830,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -842,6 +878,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,887 +940,949 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="33.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>0.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>0.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>0.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="1"/>
     </row>
     <row r="7" ht="33.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>0.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1">
         <v>0.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>0.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="26.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>0.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="37.5">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" s="1">
         <v>0.0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="26.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="26.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="1">
         <v>0.0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="1">
         <v>0.0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1">
         <v>0.0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1">
         <v>0.0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="48.75">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1">
         <v>0.0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1">
         <v>0.0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E22" s="1">
         <v>0.0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="26.25">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1">
         <v>0.0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1">
         <v>0.0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="26.25">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E25" s="1">
         <v>0.0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="26.25">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E26" s="1">
         <v>0.0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E27" s="1">
         <v>0.0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E28" s="1">
         <v>0.0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="26.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E29" s="1">
         <v>0.0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="26.25">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E30" s="1">
         <v>0.0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="26.25">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E31" s="1">
         <v>0.0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" ht="26.25">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E32" s="1">
         <v>0.0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" ht="26.25">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E33" s="1">
         <v>0.0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" ht="26.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E35" s="1">
         <v>0.0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" ht="26.25">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E36" s="1">
         <v>0.0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="26.25">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1">
         <v>0.0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1">
         <v>0.0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E39" s="1">
         <v>0.0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E40" s="1">
         <v>0.0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E41" s="1">
         <v>0.0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E42" s="1">
         <v>0.0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E43" s="1">
         <v>0.0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E44" s="1">
         <v>0.0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E45" s="1">
         <v>0.0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="26.25">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E46" s="1">
         <v>0.0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="26.25">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E47" s="1">
         <v>0.0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1787,682 +1894,784 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E50" s="1">
         <v>1.0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E51" s="1">
         <v>1.0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E52" s="1">
         <v>1.0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E53" s="1">
         <v>1.0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E54" s="1">
         <v>2.0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E55" s="1">
         <v>2.0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
+      <c r="D56" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E56" s="1">
         <v>2.0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E57" s="1">
         <v>2.0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E58" s="1">
         <v>2.0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E59" s="1">
         <v>4.0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E60" s="1">
         <v>4.0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="26.25">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E61" s="1">
         <v>4.0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E62" s="1">
         <v>4.0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="37.5">
       <c r="A63" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E64" s="1">
         <v>6.0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E65" s="1">
         <v>6.0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E66" s="1">
         <v>8.0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E67" s="1">
         <v>8.0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E68" s="1">
         <v>8.0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E69" s="1">
         <v>8.0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E70" s="1">
         <v>10.0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E71" s="1">
         <v>10.0</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="26.25">
       <c r="A72" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E72" s="1">
         <v>10.0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E73" s="1">
         <v>12.0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E74" s="1">
         <v>12.0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E75" s="1">
         <v>12.0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E76" s="1">
         <v>14.0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E77" s="1">
         <v>14.0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E78" s="1">
         <v>14.0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E79" s="1">
         <v>16.0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E80" s="1">
         <v>16.0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E81" s="1">
         <v>18.0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E82" s="1">
         <v>18.0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E83" s="1">
         <v>20.0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -2473,13 +2682,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>4</v>
@@ -2490,1225 +2699,1411 @@
       <c r="F86" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G86" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="E87" s="1">
         <v>0.0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E89" s="1">
         <v>0.0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E90" s="1">
         <v>0.0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E92" s="1">
         <v>0.0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E93" s="1">
         <v>0.0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E94" s="1">
         <v>0.0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E95" s="1">
         <v>0.0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E96" s="1">
         <v>0.0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E97" s="1">
         <v>0.0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E98" s="1">
         <v>0.0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E99" s="1">
         <v>0.0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E100" s="1">
         <v>0.0</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E101" s="1">
         <v>0.0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E102" s="1">
         <v>0.0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E103" s="1">
         <v>0.0</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E104" s="1">
         <v>0.0</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E105" s="1">
         <v>0.0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E106" s="1">
         <v>0.0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E107" s="1">
         <v>0.0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="26.25">
       <c r="A108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E108" s="1">
         <v>0.0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E109" s="1">
         <v>0.0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E110" s="1">
         <v>0.0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="37.5">
       <c r="A111" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E111" s="1">
         <v>0.0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="26.25">
       <c r="A112" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E112" s="1">
         <v>0.0</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="26.25">
       <c r="A113" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E113" s="1">
         <v>0.0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="37.5">
       <c r="A114" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E114" s="1">
         <v>0.0</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="26.25">
       <c r="A115" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E115" s="1">
         <v>0.0</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E116" s="1">
         <v>0.0</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="37.5">
       <c r="A117" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E117" s="1">
         <v>0.0</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="48.75">
       <c r="A118" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E118" s="1">
         <v>0.0</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="26.25">
       <c r="A119" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C119" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E119" s="1">
         <v>0.0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="60.0">
       <c r="A120" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E120" s="1">
         <v>0.0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="48.75">
       <c r="A121" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E121" s="1">
         <v>0.0</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="26.25">
       <c r="A122" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E122" s="1">
         <v>0.0</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="E123" s="1">
         <v>0.0</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="E124" s="1">
         <v>0.0</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="E125" s="1">
         <v>0.0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="E126" s="1">
         <v>0.0</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="E127" s="1">
         <v>0.0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E128" s="1">
         <v>0.0</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D129" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="D129" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="E129" s="1">
         <v>0.0</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="E130" s="1">
         <v>0.0</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="E131" s="1">
         <v>0.0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="E132" s="1">
         <v>0.0</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E133" s="1">
         <v>0.0</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="E134" s="1">
         <v>0.0</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="E135" s="1">
         <v>0.0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="E136" s="1">
         <v>0.0</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="E137" s="1">
         <v>0.0</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E138" s="1">
         <v>0.0</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="E139" s="1">
         <v>0.0</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E140" s="1">
         <v>0.0</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="E141" s="1">
         <v>0.0</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="E142" s="1">
         <v>0.0</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="143" ht="26.25">
       <c r="A143" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="E143" s="1">
         <v>0.0</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="144" ht="26.25">
       <c r="A144" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="E144" s="1">
         <v>0.0</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="E145" s="1">
         <v>0.0</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E146" s="1">
         <v>0.0</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="E147" s="1">
         <v>0.0</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148">

--- a/card list.xlsx
+++ b/card list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="266">
   <si>
     <t>DOOR CARDS</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Bad Stuff</t>
   </si>
   <si>
-    <t>Code Typing</t>
+    <t>Temp Column</t>
   </si>
   <si>
     <t>Jedi</t>
@@ -507,9 +507,6 @@
   </si>
   <si>
     <t>Desciption</t>
-  </si>
-  <si>
-    <t>Temp Column</t>
   </si>
   <si>
     <t>Flamethrower</t>
@@ -2700,45 +2697,45 @@
         <v>6</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E88" s="1">
         <v>0.0</v>
       </c>
@@ -2746,22 +2743,22 @@
         <v>12</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E89" s="1">
         <v>0.0</v>
       </c>
@@ -2769,68 +2766,68 @@
         <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E92" s="1">
         <v>0.0</v>
       </c>
@@ -2838,22 +2835,22 @@
         <v>12</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E93" s="1">
         <v>0.0</v>
       </c>
@@ -2861,22 +2858,22 @@
         <v>12</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E94" s="1">
         <v>0.0</v>
       </c>
@@ -2884,22 +2881,22 @@
         <v>12</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E95" s="1">
         <v>0.0</v>
       </c>
@@ -2907,21 +2904,21 @@
         <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E96" s="1">
         <v>0.0</v>
@@ -2930,21 +2927,21 @@
         <v>12</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E97" s="1">
         <v>0.0</v>
@@ -2958,16 +2955,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E98" s="1">
         <v>0.0</v>
@@ -2981,16 +2978,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E99" s="1">
         <v>0.0</v>
@@ -3004,16 +3001,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E100" s="1">
         <v>0.0</v>
@@ -3027,16 +3024,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E101" s="1">
         <v>0.0</v>
@@ -3050,16 +3047,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E102" s="1">
         <v>0.0</v>
@@ -3073,16 +3070,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E103" s="1">
         <v>0.0</v>
@@ -3096,16 +3093,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E104" s="1">
         <v>0.0</v>
@@ -3119,16 +3116,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C105" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E105" s="1">
         <v>0.0</v>
@@ -3142,16 +3139,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E106" s="1">
         <v>0.0</v>
@@ -3165,16 +3162,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E107" s="1">
         <v>0.0</v>
@@ -3188,16 +3185,16 @@
     </row>
     <row r="108" ht="26.25">
       <c r="A108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="D108" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E108" s="1">
         <v>0.0</v>
@@ -3211,16 +3208,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E109" s="1">
         <v>0.0</v>
@@ -3234,16 +3231,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E110" s="1">
         <v>0.0</v>
@@ -3257,16 +3254,16 @@
     </row>
     <row r="111" ht="37.5">
       <c r="A111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="E111" s="1">
         <v>0.0</v>
@@ -3280,16 +3277,16 @@
     </row>
     <row r="112" ht="26.25">
       <c r="A112" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E112" s="1">
         <v>0.0</v>
@@ -3303,16 +3300,16 @@
     </row>
     <row r="113" ht="26.25">
       <c r="A113" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E113" s="1">
         <v>0.0</v>
@@ -3326,16 +3323,16 @@
     </row>
     <row r="114" ht="37.5">
       <c r="A114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E114" s="1">
         <v>0.0</v>
@@ -3349,16 +3346,16 @@
     </row>
     <row r="115" ht="26.25">
       <c r="A115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E115" s="1">
         <v>0.0</v>
@@ -3372,16 +3369,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E116" s="1">
         <v>0.0</v>
@@ -3395,16 +3392,16 @@
     </row>
     <row r="117" ht="37.5">
       <c r="A117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E117" s="1">
         <v>0.0</v>
@@ -3418,16 +3415,16 @@
     </row>
     <row r="118" ht="48.75">
       <c r="A118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E118" s="1">
         <v>0.0</v>
@@ -3441,16 +3438,16 @@
     </row>
     <row r="119" ht="26.25">
       <c r="A119" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E119" s="1">
         <v>0.0</v>
@@ -3464,16 +3461,16 @@
     </row>
     <row r="120" ht="60.0">
       <c r="A120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E120" s="1">
         <v>0.0</v>
@@ -3487,16 +3484,16 @@
     </row>
     <row r="121" ht="48.75">
       <c r="A121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E121" s="1">
         <v>0.0</v>
@@ -3510,16 +3507,16 @@
     </row>
     <row r="122" ht="26.25">
       <c r="A122" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E122" s="1">
         <v>0.0</v>
@@ -3533,16 +3530,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="E123" s="1">
         <v>0.0</v>
@@ -3556,16 +3553,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="E124" s="1">
         <v>0.0</v>
@@ -3579,16 +3576,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D125" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E125" s="1">
         <v>0.0</v>
@@ -3602,16 +3599,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D126" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E126" s="1">
         <v>0.0</v>
@@ -3625,16 +3622,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D127" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E127" s="1">
         <v>0.0</v>
@@ -3648,16 +3645,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D128" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E128" s="1">
         <v>0.0</v>
@@ -3671,16 +3668,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D129" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E129" s="1">
         <v>0.0</v>
@@ -3694,16 +3691,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D130" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E130" s="1">
         <v>0.0</v>
@@ -3717,16 +3714,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D131" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E131" s="1">
         <v>0.0</v>
@@ -3740,16 +3737,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D132" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E132" s="1">
         <v>0.0</v>
@@ -3763,16 +3760,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="E133" s="1">
         <v>0.0</v>
@@ -3786,16 +3783,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D134" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E134" s="1">
         <v>0.0</v>
@@ -3809,16 +3806,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D135" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E135" s="1">
         <v>0.0</v>
@@ -3832,16 +3829,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D136" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E136" s="1">
         <v>0.0</v>
@@ -3855,16 +3852,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D137" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E137" s="1">
         <v>0.0</v>
@@ -3878,16 +3875,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="E138" s="1">
         <v>0.0</v>
@@ -3901,16 +3898,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D139" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E139" s="1">
         <v>0.0</v>
@@ -3924,16 +3921,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D140" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E140" s="1">
         <v>0.0</v>
@@ -3947,16 +3944,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D141" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E141" s="1">
         <v>0.0</v>
@@ -3970,16 +3967,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D142" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E142" s="1">
         <v>0.0</v>
@@ -3993,16 +3990,16 @@
     </row>
     <row r="143" ht="26.25">
       <c r="A143" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="E143" s="1">
         <v>0.0</v>
@@ -4016,16 +4013,16 @@
     </row>
     <row r="144" ht="26.25">
       <c r="A144" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D144" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E144" s="1">
         <v>0.0</v>
@@ -4039,16 +4036,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D145" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E145" s="1">
         <v>0.0</v>
@@ -4062,16 +4059,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D146" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E146" s="1">
         <v>0.0</v>
@@ -4085,16 +4082,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D147" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E147" s="1">
         <v>0.0</v>

--- a/card list.xlsx
+++ b/card list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="266">
   <si>
     <t>DOOR CARDS</t>
   </si>
@@ -960,6 +960,9 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="33.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -980,6 +983,9 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" ht="33.75" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1000,6 +1006,9 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="AB6" s="1"/>
     </row>
     <row r="7" ht="33.75" customHeight="1">
@@ -1021,6 +1030,9 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -1041,6 +1053,9 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1061,6 +1076,9 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" ht="26.25">
       <c r="A10" s="1" t="s">
@@ -1081,6 +1099,9 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" ht="37.5">
       <c r="A11" s="1" t="s">
@@ -1101,6 +1122,9 @@
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -1121,6 +1145,9 @@
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" ht="26.25">
       <c r="A13" s="1" t="s">
@@ -1141,6 +1168,9 @@
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" ht="26.25">
       <c r="A14" s="1" t="s">
@@ -1161,6 +1191,9 @@
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -1181,6 +1214,9 @@
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -1201,6 +1237,9 @@
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -1221,6 +1260,9 @@
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -1241,6 +1283,9 @@
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -1261,6 +1306,9 @@
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" ht="48.75">
       <c r="A20" s="1" t="s">
@@ -1281,6 +1329,9 @@
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -1301,6 +1352,9 @@
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -1321,6 +1375,9 @@
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" ht="26.25">
       <c r="A23" s="1" t="s">
@@ -1341,6 +1398,9 @@
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -1361,6 +1421,9 @@
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" ht="26.25">
       <c r="A25" s="1" t="s">
@@ -1634,6 +1697,9 @@
       <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" ht="26.25">
       <c r="A37" s="1" t="s">
@@ -1654,6 +1720,9 @@
       <c r="F37" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -1672,6 +1741,9 @@
         <v>0.0</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
